--- a/data/saucedemo.xlsx
+++ b/data/saucedemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavib\Pythonpro\Demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2434A0D6-7B68-4D9A-9A2F-FA6C70D4F621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55263262-EE2C-487D-A391-CF5336B989D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>${username}</t>
   </si>
@@ -43,19 +43,38 @@
   </si>
   <si>
     <t>hsbdcgvbd</t>
+  </si>
+  <si>
+    <t>${browser}</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>${link}</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -72,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,13 +99,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,43 +405,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/saucedemo.xlsx
+++ b/data/saucedemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavib\Pythonpro\Demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55263262-EE2C-487D-A391-CF5336B989D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEB591D-5F92-4159-82D6-410969976410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>${browser}</t>
   </si>
   <si>
+    <t>${link}</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/</t>
+  </si>
+  <si>
     <t>chrome</t>
-  </si>
-  <si>
-    <t>${link}</t>
-  </si>
-  <si>
-    <t>https://www.saucedemo.com/</t>
   </si>
   <si>
     <t>ff</t>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +74,11 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="JetBrains Mono"/>
     </font>
   </fonts>
@@ -118,13 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,7 +437,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -441,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,11 +462,23 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/saucedemo.xlsx
+++ b/data/saucedemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavib\Pythonpro\Demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEB591D-5F92-4159-82D6-410969976410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420BFDC-8704-41A0-A6A2-BBCCD373781D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>${username}</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>${Status}</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,11 +128,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -132,6 +152,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,7 +448,7 @@
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +461,11 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -453,8 +478,11 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -467,14 +495,17 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
